--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazpe\Downloads\NWB_lanc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lancs\homes\15\monserrj\My Desktop\NWB_lanc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0531AC41-C1A5-4DA1-9914-3F4B427B324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE4159-6FD7-49E1-A61B-3D79A1AF5303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A0C82A3-1835-426D-939E-A3B65505941E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6A0C82A3-1835-426D-939E-A3B65505941E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Fav Animal</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>Person</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>raven</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>rainbow</t>
   </si>
 </sst>
 </file>
@@ -440,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5149857-2C3E-487E-9219-21521B718157}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -459,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -512,6 +533,61 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
